--- a/teaching/traditional_assets/database/data/greece/greece_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/greece/greece_investments_asset_management.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0363</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="E2">
-        <v>-0.162</v>
+        <v>1.353</v>
       </c>
       <c r="G2">
-        <v>0.1889106967615309</v>
+        <v>0.279773156899811</v>
       </c>
       <c r="H2">
-        <v>0.1889106967615309</v>
+        <v>0.279773156899811</v>
       </c>
       <c r="I2">
-        <v>0.2100098135426889</v>
+        <v>0.2879962192816635</v>
       </c>
       <c r="J2">
-        <v>0.1660055248343803</v>
+        <v>0.167709459143527</v>
       </c>
       <c r="K2">
-        <v>1.149</v>
+        <v>1.905</v>
       </c>
       <c r="L2">
-        <v>0.1409470068694799</v>
+        <v>0.1800567107750472</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>2.484</v>
       </c>
       <c r="N2">
-        <v>0.0395882818685669</v>
+        <v>0.08619014573213046</v>
       </c>
       <c r="O2">
-        <v>0.8703220191470844</v>
+        <v>1.303937007874016</v>
       </c>
       <c r="P2">
-        <v>0.9339999999999999</v>
+        <v>2.064</v>
       </c>
       <c r="Q2">
-        <v>0.03697545526524149</v>
+        <v>0.07161693268563497</v>
       </c>
       <c r="R2">
-        <v>0.8128807658833768</v>
+        <v>1.083464566929134</v>
       </c>
       <c r="S2">
-        <v>0.06599999999999999</v>
+        <v>0.4200000000000002</v>
       </c>
       <c r="T2">
-        <v>0.06599999999999999</v>
+        <v>0.1690821256038648</v>
       </c>
       <c r="U2">
-        <v>1.18</v>
+        <v>4.69</v>
       </c>
       <c r="V2">
-        <v>0.04671417260490895</v>
+        <v>0.162734212352533</v>
       </c>
       <c r="W2">
-        <v>0.1189005961700327</v>
+        <v>0.186392183931554</v>
       </c>
       <c r="X2">
-        <v>0.07381850438112827</v>
+        <v>0.06114138249983702</v>
       </c>
       <c r="Y2">
-        <v>0.04508209178890447</v>
+        <v>0.125250801431717</v>
       </c>
       <c r="Z2">
-        <v>0.9399285137783926</v>
+        <v>0.727147766323024</v>
       </c>
       <c r="AA2">
-        <v>0.1473422787182699</v>
+        <v>0.1755335665699866</v>
       </c>
       <c r="AB2">
-        <v>0.07268777114701983</v>
+        <v>0.0572041771518761</v>
       </c>
       <c r="AC2">
-        <v>0.07465450757125006</v>
+        <v>0.1183293894181105</v>
       </c>
       <c r="AD2">
-        <v>1.41</v>
+        <v>3.715</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.41</v>
+        <v>3.715</v>
       </c>
       <c r="AG2">
-        <v>0.2299999999999998</v>
+        <v>-0.9750000000000005</v>
       </c>
       <c r="AH2">
-        <v>0.05286839145106861</v>
+        <v>0.1141847241432304</v>
       </c>
       <c r="AI2">
-        <v>0.08963763509218053</v>
+        <v>0.2104219767771169</v>
       </c>
       <c r="AJ2">
-        <v>0.009023146331894851</v>
+        <v>-0.03501526306338663</v>
       </c>
       <c r="AK2">
-        <v>0.01580756013745703</v>
+        <v>-0.07520246818357119</v>
       </c>
       <c r="AL2">
-        <v>0.03</v>
+        <v>0.121</v>
       </c>
       <c r="AM2">
-        <v>-0.033</v>
+        <v>0.115</v>
       </c>
       <c r="AN2">
-        <v>1.119047619047619</v>
+        <v>1.255067567567568</v>
       </c>
       <c r="AO2">
-        <v>57.06666666666667</v>
+        <v>25.18181818181818</v>
       </c>
       <c r="AP2">
-        <v>0.1825396825396823</v>
+        <v>-0.3293918918918921</v>
       </c>
       <c r="AQ2">
-        <v>-51.87878787878788</v>
+        <v>26.49565217391305</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0363</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="E3">
-        <v>-0.162</v>
+        <v>1.353</v>
       </c>
       <c r="G3">
-        <v>0.2144846796657382</v>
+        <v>0.3234972677595628</v>
       </c>
       <c r="H3">
-        <v>0.2144846796657382</v>
+        <v>0.3234972677595628</v>
       </c>
       <c r="I3">
-        <v>0.1601671309192201</v>
+        <v>0.3136612021857924</v>
       </c>
       <c r="J3">
-        <v>0.1045158396676266</v>
+        <v>0.2084794068238429</v>
       </c>
       <c r="K3">
-        <v>0.787</v>
+        <v>1.88</v>
       </c>
       <c r="L3">
-        <v>0.1096100278551532</v>
+        <v>0.2054644808743169</v>
       </c>
       <c r="M3">
-        <v>0.8179999999999999</v>
+        <v>2.116</v>
       </c>
       <c r="N3">
-        <v>0.05080745341614906</v>
+        <v>0.1022222222222222</v>
       </c>
       <c r="O3">
-        <v>1.039390088945362</v>
+        <v>1.125531914893617</v>
       </c>
       <c r="P3">
-        <v>0.8179999999999999</v>
+        <v>1.89</v>
       </c>
       <c r="Q3">
-        <v>0.05080745341614906</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="R3">
-        <v>1.039390088945362</v>
+        <v>1.00531914893617</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.2260000000000002</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.1068052930056712</v>
       </c>
       <c r="U3">
-        <v>0.899</v>
+        <v>2.47</v>
       </c>
       <c r="V3">
-        <v>0.05583850931677018</v>
+        <v>0.1193236714975845</v>
       </c>
       <c r="W3">
-        <v>0.160285132382892</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="X3">
-        <v>0.07548788182421821</v>
+        <v>0.05584132398743984</v>
       </c>
       <c r="Y3">
-        <v>0.08479725055867383</v>
+        <v>0.3142374161700404</v>
       </c>
       <c r="Z3">
-        <v>1.693396226415094</v>
+        <v>1.636558755142193</v>
       </c>
       <c r="AA3">
-        <v>0.176986728493764</v>
+        <v>0.3411887985044111</v>
       </c>
       <c r="AB3">
-        <v>0.07322641535600131</v>
+        <v>0.0551564865285958</v>
       </c>
       <c r="AC3">
-        <v>0.1037603131377627</v>
+        <v>0.2860323119758154</v>
       </c>
       <c r="AD3">
-        <v>1.41</v>
+        <v>0.865</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.41</v>
+        <v>0.865</v>
       </c>
       <c r="AG3">
-        <v>0.5109999999999999</v>
+        <v>-1.605</v>
       </c>
       <c r="AH3">
-        <v>0.08052541404911479</v>
+        <v>0.04011129144447021</v>
       </c>
       <c r="AI3">
-        <v>0.2172573189522342</v>
+        <v>0.1409942950285249</v>
       </c>
       <c r="AJ3">
-        <v>0.03076274757690686</v>
+        <v>-0.08405341712490182</v>
       </c>
       <c r="AK3">
-        <v>0.091396887855482</v>
+        <v>-0.4379263301500684</v>
       </c>
       <c r="AL3">
-        <v>0.03</v>
+        <v>0.043</v>
       </c>
       <c r="AM3">
-        <v>-0.033</v>
+        <v>0.037</v>
       </c>
       <c r="AN3">
-        <v>1.119047619047619</v>
+        <v>0.2922297297297297</v>
       </c>
       <c r="AO3">
-        <v>38.33333333333333</v>
+        <v>66.74418604651163</v>
       </c>
       <c r="AP3">
-        <v>0.4055555555555554</v>
+        <v>-0.5422297297297298</v>
       </c>
       <c r="AQ3">
-        <v>-34.84848484848484</v>
+        <v>77.56756756756758</v>
       </c>
     </row>
     <row r="4">
@@ -865,97 +865,103 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5781893004115227</v>
+        <v>0.1237762237762238</v>
       </c>
       <c r="J4">
-        <v>0.5367844400239968</v>
+        <v>0.06188811188811189</v>
       </c>
       <c r="K4">
-        <v>0.362</v>
+        <v>0.025</v>
       </c>
       <c r="L4">
-        <v>0.3724279835390946</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="M4">
-        <v>0.182</v>
+        <v>0.368</v>
       </c>
       <c r="N4">
-        <v>0.01986899563318777</v>
+        <v>0.04532019704433498</v>
       </c>
       <c r="O4">
-        <v>0.5027624309392266</v>
+        <v>14.72</v>
       </c>
       <c r="P4">
-        <v>0.116</v>
+        <v>0.174</v>
       </c>
       <c r="Q4">
-        <v>0.01266375545851528</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="R4">
-        <v>0.3204419889502763</v>
+        <v>6.959999999999999</v>
       </c>
       <c r="S4">
-        <v>0.06599999999999999</v>
+        <v>0.194</v>
       </c>
       <c r="T4">
-        <v>0.3626373626373626</v>
+        <v>0.5271739130434783</v>
       </c>
       <c r="U4">
-        <v>0.281</v>
+        <v>2.22</v>
       </c>
       <c r="V4">
-        <v>0.03067685589519651</v>
+        <v>0.2733990147783252</v>
       </c>
       <c r="W4">
-        <v>0.07751605995717345</v>
+        <v>0.002705627705627706</v>
       </c>
       <c r="X4">
-        <v>0.07214912693803832</v>
+        <v>0.0664414410122342</v>
       </c>
       <c r="Y4">
-        <v>0.005366933019135128</v>
+        <v>-0.06373581330660649</v>
       </c>
       <c r="Z4">
-        <v>0.2192646063613806</v>
+        <v>0.1596160285746177</v>
       </c>
       <c r="AA4">
-        <v>0.1176978289427758</v>
+        <v>0.009878334635562005</v>
       </c>
       <c r="AB4">
-        <v>0.07214912693803832</v>
+        <v>0.05925186777515639</v>
       </c>
       <c r="AC4">
-        <v>0.04554870200473743</v>
+        <v>-0.04937353313959439</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AG4">
-        <v>-0.281</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.2597994530537831</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.2473958333333333</v>
       </c>
       <c r="AJ4">
-        <v>-0.0316477080752337</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AK4">
-        <v>-0.03136510771291439</v>
+        <v>0.06774193548387095</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.078</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.078</v>
+      </c>
+      <c r="AO4">
+        <v>2.269230769230769</v>
+      </c>
+      <c r="AQ4">
+        <v>2.269230769230769</v>
       </c>
     </row>
   </sheetData>
